--- a/public/icons/h/out.xlsx
+++ b/public/icons/h/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Codigo</t>
   </si>
@@ -131,8 +131,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts/>
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +154,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -530,7 +530,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -548,182 +547,182 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s" s="2">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="2">
         <v>28</v>
       </c>
       <c r="E7" s="6">
@@ -735,16 +734,16 @@
       <c r="I7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="2">
         <v>22</v>
       </c>
       <c r="E8" s="6"/>
@@ -754,13 +753,13 @@
       <c r="I8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s" s="4">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2"/>
@@ -771,16 +770,16 @@
       <c r="I9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E10" s="6"/>
